--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Account number</t>
   </si>
@@ -56,10 +56,13 @@
     <t>CBA</t>
   </si>
   <si>
-    <t>cba</t>
-  </si>
-  <si>
     <t>aaa</t>
+  </si>
+  <si>
+    <t>ALS</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -402,15 +405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +433,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -437,8 +450,11 @@
       <c r="D2">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -451,10 +467,13 @@
       <c r="D3">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -465,8 +484,11 @@
       <c r="D4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -479,12 +501,11 @@
       <c r="D5">
         <v>45</v>
       </c>
-      <c r="H5">
-        <f>VLOOKUP("cba",A1:D8,3,FALSE)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -497,8 +518,11 @@
       <c r="D6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -511,10 +535,13 @@
       <c r="D7">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>54</v>
@@ -524,6 +551,9 @@
       </c>
       <c r="D8">
         <v>49</v>
+      </c>
+      <c r="E8">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
